--- a/TRNMNT/DocSamples/brackets-3.xlsx
+++ b/TRNMNT/DocSamples/brackets-3.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>А</t>
-  </si>
-  <si>
     <t>В</t>
   </si>
   <si>
     <t>проигравший в "А"</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -156,18 +156,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -472,156 +464,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J24"/>
+  <dimension ref="B6:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="I4" s="10" t="s">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="2"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="5"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="5"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="5"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-      <c r="C21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="8"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="5"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="5"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I21:J21"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
